--- a/Data/sff8 establishment data.xlsx
+++ b/Data/sff8 establishment data.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1084" documentId="11_FD6BB566BE01DE02B728D4B5C6AA1BC8A28367B5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A18B2B02-741F-4F14-95DF-8776D4CC6314}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Ecology\Student_folders_&amp;_files\Jonathan 2024\sangres_graphs\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389D1FF4-2568-425B-969F-7EB530152523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$521</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -163,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,11 +564,11 @@
   <dimension ref="A1:J521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K125" sqref="K125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -572,7 +580,7 @@
     <col min="9" max="9" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -604,7 +612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -627,7 +635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -650,7 +658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -673,7 +681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -693,7 +701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -716,7 +724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -739,7 +747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -759,7 +767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -779,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -805,7 +813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -825,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -845,7 +853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -865,7 +873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -888,7 +896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -911,7 +919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -931,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -951,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -971,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -991,7 +999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1011,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1031,7 +1039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1051,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1071,7 +1079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1091,7 +1099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1111,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1131,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1151,7 +1159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1171,7 +1179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1191,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1211,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1231,7 +1239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1251,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1271,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1291,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1311,7 +1319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1331,7 +1339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1357,7 +1365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1377,7 +1385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1403,7 +1411,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1429,7 +1437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1455,7 +1463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1478,7 +1486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1501,7 +1509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1524,7 +1532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1544,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1567,7 +1575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1590,7 +1598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1613,7 +1621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1636,7 +1644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1659,7 +1667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1679,7 +1687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1699,7 +1707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1719,7 +1727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1739,7 +1747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1759,7 +1767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1779,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1799,7 +1807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1819,7 +1827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1839,7 +1847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1859,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1879,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1899,7 +1907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1919,7 +1927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1939,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1962,7 +1970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1982,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2005,7 +2013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2025,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2045,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2065,7 +2073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2085,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2105,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2128,7 +2136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2151,7 +2159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2174,7 +2182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2194,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2214,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2237,7 +2245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2257,7 +2265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2277,7 +2285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2297,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2317,7 +2325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2337,7 +2345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2357,7 +2365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2377,7 +2385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2400,7 +2408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2423,7 +2431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2446,7 +2454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2469,7 +2477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2495,7 +2503,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2518,7 +2526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2538,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2558,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2578,7 +2586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2598,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2618,7 +2626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2638,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2658,7 +2666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2678,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2698,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2718,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2738,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2758,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2778,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2798,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2818,7 +2826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2838,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2858,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2878,7 +2886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2898,7 +2906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2918,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2938,7 +2946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2961,7 +2969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2981,7 +2989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3004,7 +3012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3027,7 +3035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3047,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3067,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3087,7 +3095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3107,7 +3115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3127,7 +3135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3147,7 +3155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3167,7 +3175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3187,7 +3195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3198,7 +3206,7 @@
         <v>23</v>
       </c>
       <c r="D125" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E125">
         <v>36</v>
@@ -3210,7 +3218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3221,7 +3229,7 @@
         <v>23</v>
       </c>
       <c r="D126" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E126">
         <v>58.8</v>
@@ -3233,7 +3241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3244,7 +3252,7 @@
         <v>23</v>
       </c>
       <c r="D127" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E127">
         <v>53.2</v>
@@ -3259,7 +3267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3270,7 +3278,7 @@
         <v>23</v>
       </c>
       <c r="D128" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E128">
         <v>57.2</v>
@@ -3285,7 +3293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3296,7 +3304,7 @@
         <v>23</v>
       </c>
       <c r="D129" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E129">
         <v>56.7</v>
@@ -3308,7 +3316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3319,7 +3327,7 @@
         <v>23</v>
       </c>
       <c r="D130" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E130">
         <v>52.1</v>
@@ -3331,7 +3339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3342,7 +3350,7 @@
         <v>23</v>
       </c>
       <c r="D131" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E131">
         <v>60</v>
@@ -3354,7 +3362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3365,7 +3373,7 @@
         <v>23</v>
       </c>
       <c r="D132" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E132">
         <v>43.8</v>
@@ -3377,7 +3385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3388,7 +3396,7 @@
         <v>23</v>
       </c>
       <c r="D133" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E133">
         <v>44.4</v>
@@ -3400,7 +3408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3411,7 +3419,7 @@
         <v>23</v>
       </c>
       <c r="D134" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E134">
         <v>34.200000000000003</v>
@@ -3423,7 +3431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3434,7 +3442,7 @@
         <v>23</v>
       </c>
       <c r="D135" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E135">
         <v>34.700000000000003</v>
@@ -3446,7 +3454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3457,7 +3465,7 @@
         <v>23</v>
       </c>
       <c r="D136" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E136">
         <v>65.900000000000006</v>
@@ -3469,7 +3477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3489,7 +3497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3512,7 +3520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3532,7 +3540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3552,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3572,7 +3580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3595,7 +3603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3615,7 +3623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3635,7 +3643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3655,7 +3663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3675,7 +3683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3698,7 +3706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3721,7 +3729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3744,7 +3752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3767,7 +3775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3790,7 +3798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3813,7 +3821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3836,7 +3844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3856,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3876,7 +3884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3896,7 +3904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -3916,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -3936,7 +3944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -3956,7 +3964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -3979,7 +3987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -3999,7 +4007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4019,7 +4027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4039,7 +4047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4059,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4079,7 +4087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4102,7 +4110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4122,7 +4130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4142,7 +4150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4162,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4182,7 +4190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4202,7 +4210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4222,7 +4230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4242,7 +4250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4262,7 +4270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4282,7 +4290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4302,7 +4310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4322,7 +4330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4342,7 +4350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4362,7 +4370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4382,7 +4390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4402,7 +4410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4422,7 +4430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4442,7 +4450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4462,7 +4470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4482,7 +4490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4502,7 +4510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4522,7 +4530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4542,7 +4550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4562,7 +4570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -4582,7 +4590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -4608,7 +4616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -4628,7 +4636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -4651,7 +4659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -4671,7 +4679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -4691,7 +4699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -4711,7 +4719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -4731,7 +4739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -4751,7 +4759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -4771,7 +4779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -4791,7 +4799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -4811,7 +4819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -4831,7 +4839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -4854,7 +4862,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -4874,7 +4882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -4894,7 +4902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -4914,7 +4922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -4934,7 +4942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -4954,7 +4962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -4974,7 +4982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -4994,7 +5002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -5014,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -5034,7 +5042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -5054,7 +5062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -5074,7 +5082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -5094,7 +5102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -5114,7 +5122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -5134,7 +5142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -5154,7 +5162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -5174,7 +5182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -5194,7 +5202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -5214,7 +5222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -5234,7 +5242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -5257,7 +5265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -5277,7 +5285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -5297,7 +5305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -5320,7 +5328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -5340,7 +5348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -5360,7 +5368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -5380,7 +5388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -5400,7 +5408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -5420,7 +5428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -5440,7 +5448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -5463,7 +5471,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -5486,7 +5494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -5506,7 +5514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -5526,7 +5534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -5546,7 +5554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -5566,7 +5574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -5586,7 +5594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -5606,7 +5614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -5626,7 +5634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -5646,7 +5654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -5666,7 +5674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -5686,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -5706,7 +5714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -5726,7 +5734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -5746,7 +5754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -5766,7 +5774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -5786,7 +5794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -5806,7 +5814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -5826,7 +5834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -5846,7 +5854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -5866,7 +5874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -5886,7 +5894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -5906,7 +5914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -5929,7 +5937,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -5949,7 +5957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -5969,7 +5977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -5992,7 +6000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -6012,7 +6020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -6032,7 +6040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -6055,7 +6063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -6078,7 +6086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -6098,7 +6106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -6118,7 +6126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -6138,7 +6146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -6158,7 +6166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -6178,7 +6186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -6198,7 +6206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -6218,7 +6226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -6238,7 +6246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -6258,7 +6266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -6278,7 +6286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -6298,7 +6306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -6318,7 +6326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -6338,7 +6346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -6358,7 +6366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -6378,7 +6386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -6398,7 +6406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -6418,7 +6426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -6438,7 +6446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -6458,7 +6466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -6478,7 +6486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -6498,7 +6506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -6518,7 +6526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -6538,7 +6546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -6558,7 +6566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -6578,7 +6586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -6598,7 +6606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -6618,7 +6626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -6638,7 +6646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -6658,7 +6666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -6678,7 +6686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -6698,7 +6706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -6718,7 +6726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -6738,7 +6746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -6758,7 +6766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -6778,7 +6786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -6798,7 +6806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -6818,7 +6826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -6838,7 +6846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -6858,7 +6866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -6878,7 +6886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -6898,7 +6906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -6918,7 +6926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -6938,7 +6946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -6958,7 +6966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -6978,7 +6986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -6998,7 +7006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -7018,7 +7026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -7038,7 +7046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -7058,7 +7066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -7078,7 +7086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -7098,7 +7106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -7118,7 +7126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -7138,7 +7146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -7158,7 +7166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -7178,7 +7186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -7198,7 +7206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -7218,7 +7226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:10">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -7238,7 +7246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:10">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -7258,7 +7266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:10">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -7278,7 +7286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:10">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -7298,7 +7306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:10">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -7318,7 +7326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:10">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -7338,7 +7346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:10">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -7358,7 +7366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:10">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -7384,7 +7392,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="329" spans="1:10">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -7404,7 +7412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:10">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -7424,7 +7432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:10">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -7444,7 +7452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:10">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -7464,7 +7472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:10">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -7484,7 +7492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:10">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -7504,7 +7512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:10">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -7524,7 +7532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:10">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -7544,7 +7552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -7564,7 +7572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -7584,7 +7592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -7604,7 +7612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -7624,7 +7632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -7644,7 +7652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -7664,7 +7672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -7684,7 +7692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -7704,7 +7712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -7724,7 +7732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -7744,7 +7752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -7764,7 +7772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -7784,7 +7792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -7804,7 +7812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -7824,7 +7832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -7844,7 +7852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -7864,7 +7872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -7884,7 +7892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -7904,7 +7912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -7924,7 +7932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -7944,7 +7952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -7964,7 +7972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -7984,7 +7992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -8004,7 +8012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -8024,7 +8032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -8044,7 +8052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -8064,7 +8072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -8084,7 +8092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -8104,7 +8112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -8124,7 +8132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -8144,7 +8152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -8164,7 +8172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -8184,7 +8192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:10">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -8204,7 +8212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:10">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -8224,7 +8232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:10">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -8244,7 +8252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:10">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -8264,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:10">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -8284,7 +8292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:10">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -8307,7 +8315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="375" spans="1:10">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -8327,7 +8335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:10">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -8347,7 +8355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:10">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -8367,7 +8375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:10">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -8390,7 +8398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="1:10">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -8410,7 +8418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:10">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -8433,7 +8441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="1:10">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -8456,7 +8464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="382" spans="1:10">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -8476,7 +8484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:10">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -8496,7 +8504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:10">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -8519,7 +8527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="385" spans="1:10">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -8542,7 +8550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="386" spans="1:10">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -8565,7 +8573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="387" spans="1:10">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -8585,7 +8593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:10">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -8608,7 +8616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="389" spans="1:10">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -8631,7 +8639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="390" spans="1:10">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -8654,7 +8662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="391" spans="1:10">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -8674,7 +8682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:10">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -8694,7 +8702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:10">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -8714,7 +8722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:10">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -8734,7 +8742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:10">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -8754,7 +8762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:10">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -8774,7 +8782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:10">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -8797,7 +8805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="398" spans="1:10">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -8817,7 +8825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:10">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -8840,7 +8848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="400" spans="1:10">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -8860,7 +8868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:10">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -8883,7 +8891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="402" spans="1:10">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -8903,7 +8911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:10">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -8923,7 +8931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:10">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -8943,7 +8951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:10">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -8966,7 +8974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="406" spans="1:10">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -8986,7 +8994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:10">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -9006,7 +9014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:10">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -9026,7 +9034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:10">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
@@ -9046,7 +9054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:10">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -9066,7 +9074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:10">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
@@ -9086,7 +9094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:10">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
@@ -9106,7 +9114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:10">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
@@ -9126,7 +9134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:10">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -9146,7 +9154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:10">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
@@ -9166,7 +9174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:10">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
@@ -9186,7 +9194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
@@ -9206,7 +9214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
@@ -9226,7 +9234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
@@ -9246,7 +9254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
@@ -9266,7 +9274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
@@ -9286,7 +9294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
@@ -9306,7 +9314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
@@ -9326,7 +9334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
@@ -9346,7 +9354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:6">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
@@ -9366,7 +9374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:6">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
@@ -9386,7 +9394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>426</v>
       </c>
@@ -9406,7 +9414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>427</v>
       </c>
@@ -9426,7 +9434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>428</v>
       </c>
@@ -9446,7 +9454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:6">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>429</v>
       </c>
@@ -9466,7 +9474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:6">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>430</v>
       </c>
@@ -9486,7 +9494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>431</v>
       </c>
@@ -9506,7 +9514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:10">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>432</v>
       </c>
@@ -9526,7 +9534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:10">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>433</v>
       </c>
@@ -9546,7 +9554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:10">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>434</v>
       </c>
@@ -9566,7 +9574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="436" spans="1:10">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>435</v>
       </c>
@@ -9586,7 +9594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:10">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>436</v>
       </c>
@@ -9606,7 +9614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:10">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>437</v>
       </c>
@@ -9626,7 +9634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:10">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>438</v>
       </c>
@@ -9646,7 +9654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:10">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>439</v>
       </c>
@@ -9669,7 +9677,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="441" spans="1:10">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>440</v>
       </c>
@@ -9689,7 +9697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:10">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>441</v>
       </c>
@@ -9712,7 +9720,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="443" spans="1:10">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>442</v>
       </c>
@@ -9732,7 +9740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:10">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>443</v>
       </c>
@@ -9752,7 +9760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:10">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>444</v>
       </c>
@@ -9772,7 +9780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:10">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>445</v>
       </c>
@@ -9792,7 +9800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:10">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>446</v>
       </c>
@@ -9815,7 +9823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="448" spans="1:10">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>447</v>
       </c>
@@ -9835,7 +9843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>448</v>
       </c>
@@ -9858,7 +9866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>449</v>
       </c>
@@ -9878,7 +9886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>450</v>
       </c>
@@ -9898,7 +9906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>451</v>
       </c>
@@ -9918,7 +9926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>452</v>
       </c>
@@ -9938,7 +9946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>453</v>
       </c>
@@ -9958,7 +9966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:8">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>454</v>
       </c>
@@ -9978,7 +9986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:8">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>455</v>
       </c>
@@ -9998,7 +10006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:8">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>456</v>
       </c>
@@ -10018,7 +10026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>457</v>
       </c>
@@ -10038,7 +10046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:8">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>458</v>
       </c>
@@ -10058,7 +10066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>459</v>
       </c>
@@ -10078,7 +10086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>460</v>
       </c>
@@ -10098,7 +10106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>461</v>
       </c>
@@ -10118,7 +10126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>462</v>
       </c>
@@ -10138,7 +10146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>463</v>
       </c>
@@ -10158,7 +10166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:6">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>464</v>
       </c>
@@ -10178,7 +10186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:6">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>465</v>
       </c>
@@ -10198,7 +10206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>466</v>
       </c>
@@ -10218,7 +10226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:6">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>467</v>
       </c>
@@ -10238,7 +10246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:6">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>468</v>
       </c>
@@ -10258,7 +10266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:6">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>469</v>
       </c>
@@ -10278,7 +10286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:6">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>470</v>
       </c>
@@ -10298,7 +10306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:6">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>471</v>
       </c>
@@ -10318,7 +10326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:6">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>472</v>
       </c>
@@ -10338,7 +10346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:6">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>473</v>
       </c>
@@ -10358,7 +10366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>474</v>
       </c>
@@ -10378,7 +10386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:6">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>475</v>
       </c>
@@ -10398,7 +10406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:6">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>476</v>
       </c>
@@ -10418,7 +10426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:6">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>477</v>
       </c>
@@ -10438,7 +10446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:6">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>478</v>
       </c>
@@ -10458,7 +10466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:6">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>479</v>
       </c>
@@ -10478,7 +10486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:10">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>480</v>
       </c>
@@ -10501,7 +10509,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="482" spans="1:10">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>481</v>
       </c>
@@ -10521,7 +10529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:10">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>482</v>
       </c>
@@ -10541,7 +10549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:10">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>483</v>
       </c>
@@ -10561,7 +10569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:10">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>484</v>
       </c>
@@ -10581,7 +10589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:10">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>485</v>
       </c>
@@ -10601,7 +10609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="487" spans="1:10">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>486</v>
       </c>
@@ -10621,7 +10629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:10">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>487</v>
       </c>
@@ -10641,7 +10649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:10">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>488</v>
       </c>
@@ -10661,7 +10669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:10">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>489</v>
       </c>
@@ -10681,7 +10689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="491" spans="1:10">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>490</v>
       </c>
@@ -10704,7 +10712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="492" spans="1:10">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>491</v>
       </c>
@@ -10724,7 +10732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:10">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>492</v>
       </c>
@@ -10744,7 +10752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:10">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>493</v>
       </c>
@@ -10764,7 +10772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:10">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>494</v>
       </c>
@@ -10784,7 +10792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:10">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>495</v>
       </c>
@@ -10804,7 +10812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="497" spans="1:10">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>496</v>
       </c>
@@ -10824,7 +10832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="498" spans="1:10">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>497</v>
       </c>
@@ -10844,7 +10852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:10">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>498</v>
       </c>
@@ -10864,7 +10872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:10">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>499</v>
       </c>
@@ -10884,7 +10892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:10">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>500</v>
       </c>
@@ -10904,7 +10912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:10">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>1411</v>
       </c>
@@ -10924,7 +10932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:10">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>1412</v>
       </c>
@@ -10944,7 +10952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:10">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>1413</v>
       </c>
@@ -10967,7 +10975,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="505" spans="1:10">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>1414</v>
       </c>
@@ -10987,7 +10995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:10">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>1415</v>
       </c>
@@ -11007,7 +11015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:10">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>1416</v>
       </c>
@@ -11027,7 +11035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:10">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>1417</v>
       </c>
@@ -11047,7 +11055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:10">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>1418</v>
       </c>
@@ -11067,7 +11075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:10">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>1419</v>
       </c>
@@ -11087,7 +11095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:10">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>1420</v>
       </c>
@@ -11107,7 +11115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:10">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>1421</v>
       </c>
@@ -11127,7 +11135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:10">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>1422</v>
       </c>
@@ -11147,7 +11155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="514" spans="1:10">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>1423</v>
       </c>
@@ -11170,7 +11178,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="515" spans="1:10">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>1424</v>
       </c>
@@ -11190,7 +11198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:10">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>1425</v>
       </c>
@@ -11210,7 +11218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:10">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>1426</v>
       </c>
@@ -11230,7 +11238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:10">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>1427</v>
       </c>
@@ -11250,7 +11258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:10">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>1428</v>
       </c>
@@ -11270,7 +11278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:10">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>1429</v>
       </c>
@@ -11290,7 +11298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:10">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>1430</v>
       </c>
@@ -11622,13 +11630,42 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51602E44-B4C0-4D8C-A59F-805A7A6C1E2D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51602E44-B4C0-4D8C-A59F-805A7A6C1E2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9"/>
+    <ds:schemaRef ds:uri="31062a0d-ede8-4112-b4bb-00a9c1bc8e16"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D514523F-DDAE-4B1F-873B-94A8A26807ED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D514523F-DDAE-4B1F-873B-94A8A26807ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9501E8C9-DB43-44FF-82D1-3BDD23F85091}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9501E8C9-DB43-44FF-82D1-3BDD23F85091}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="3618cbaa-901d-4c6b-9f1a-f53e3aa15701"/>
+    <ds:schemaRef ds:uri="e2c843f9-3b2b-47f3-8277-ec7d36bcd5c9"/>
+    <ds:schemaRef ds:uri="31062a0d-ede8-4112-b4bb-00a9c1bc8e16"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>